--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1514121.126572715</v>
+        <v>1511082.005502065</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7717665.444379228</v>
+        <v>7717665.444379231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5028008.825466382</v>
+        <v>5028008.82546638</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7855243.23523529</v>
+        <v>7855243.235235289</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.08822281599018904</v>
       </c>
       <c r="I2" t="n">
-        <v>37.36545815842034</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77.38235633659032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -788,16 +788,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>184.2442225478041</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.23487371627584</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6388957529291</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9609751381512</v>
+        <v>93.09545221568155</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.33883017348273</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>19.05227111952566</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1031,7 +1031,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>54.18922220124553</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96.39672952062243</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>202.6011555723736</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,26 +1132,26 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08822281599025586</v>
+      </c>
+      <c r="F8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F8" t="n">
-        <v>193.5184989448065</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.031127956876844</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
         <v>87.41444223540508</v>
@@ -1271,7 +1271,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>215.6890000612532</v>
+        <v>96.82978031239904</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.78551875788239</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>172.4751394295243</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>89.04350455047025</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>215.8255580062061</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0957840920666</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>133.224851944318</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>215.6318088434473</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>112.7493906994187</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.01185193027386</v>
+        <v>148.9675758312477</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.59724098628948</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>191.0731830519693</v>
       </c>
       <c r="T13" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5539977687581</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>9.753610425080829</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>337.8465517262037</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>407.7884007358668</v>
       </c>
       <c r="H14" t="n">
-        <v>308.1151397770052</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.8255580062061</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>13.2463942025155</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.59724098628948</v>
+        <v>88.63294210012187</v>
       </c>
       <c r="S16" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>230.9800523589181</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>181.4766046583709</v>
+        <v>379.0924901752369</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>151.7969626464298</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>124.4665561152933</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.59724098628948</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>345.2029901405342</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>181.1170866698928</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H20" t="n">
         <v>308.1151397770052</v>
       </c>
       <c r="I20" t="n">
-        <v>89.04350455047025</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>121.249029560279</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2953097983262</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9675758312477</v>
       </c>
       <c r="I22" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.59724098628948</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>407.7884007358668</v>
       </c>
       <c r="H23" t="n">
-        <v>267.2742298809276</v>
+        <v>308.1151397770052</v>
       </c>
       <c r="I23" t="n">
-        <v>89.04350455047025</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.8255580062061</v>
+        <v>14.99984660391788</v>
       </c>
       <c r="U23" t="n">
         <v>253.0957840920666</v>
@@ -2383,7 +2383,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>21.27781086981544</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.59724098628948</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>202.1424974171506</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.81652525075829</v>
+        <v>91.71750154274098</v>
       </c>
       <c r="T26" t="n">
         <v>215.8255580062061</v>
@@ -2614,7 +2614,7 @@
         <v>253.0957840920666</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>142.3867038877369</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.4993384345618</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2812,7 +2812,7 @@
         <v>308.1151397770052</v>
       </c>
       <c r="I29" t="n">
-        <v>89.04350455047023</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>215.8255580062061</v>
+        <v>14.99984660391788</v>
       </c>
       <c r="U29" t="n">
         <v>253.0957840920666</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>362.6166113305362</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.59724098628946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>52.05213630379277</v>
+        <v>54.23654301103213</v>
       </c>
       <c r="U31" t="n">
         <v>282.5539977687581</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>379.9471014581363</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H32" t="n">
         <v>308.1151397770052</v>
       </c>
       <c r="I32" t="n">
-        <v>89.04350455047023</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.8255580062061</v>
+        <v>14.99984660391788</v>
       </c>
       <c r="U32" t="n">
         <v>253.0957840920666</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>230.9800523589181</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>165.8526661987946</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>115.4993384345618</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3325,16 +3325,16 @@
         <v>253.0957840920666</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>258.3273486102802</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>221.4695660507928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>111.4613594726118</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H37" t="n">
         <v>148.9675758312477</v>
       </c>
       <c r="I37" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.59724098628946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5539977687581</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>51.15856601474938</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>115.6269913047304</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H38" t="n">
         <v>308.1151397770052</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>89.04350455047023</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>136.5297729595937</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.8255580062061</v>
       </c>
       <c r="U38" t="n">
         <v>253.0957840920666</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>111.2905340772904</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9675758312477</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T40" t="n">
-        <v>16.05206578449759</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>262.9730840297381</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>87.88667229137403</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>308.1151397770052</v>
       </c>
       <c r="I41" t="n">
-        <v>89.04350455047023</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>90.4964246481929</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0957840920666</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>11.96225532619317</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>97.59724098628946</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>32.52585429722357</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>93.3075176790265</v>
+        <v>176.0163438065736</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.7884007358668</v>
       </c>
       <c r="H44" t="n">
         <v>308.1151397770052</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>89.04350455047023</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.8255580062061</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0957840920666</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>61.05968534820288</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>262.6215999813872</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="C2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="D2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="E2" t="n">
-        <v>297.5459297822121</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="F2" t="n">
-        <v>65.26211651135227</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="G2" t="n">
-        <v>56.1397650397595</v>
+        <v>18.48599196659774</v>
       </c>
       <c r="H2" t="n">
-        <v>56.1397650397595</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I2" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L2" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M2" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N2" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O2" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P2" t="n">
         <v>919.8439005526046</v>
@@ -4354,28 +4354,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>753.3303454936552</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>529.8297430530719</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.5459297822121</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.8439499272761</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C3" t="n">
-        <v>187.8439499272761</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D3" t="n">
-        <v>187.8439499272761</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E3" t="n">
-        <v>187.8439499272761</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F3" t="n">
-        <v>187.8439499272761</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G3" t="n">
-        <v>67.7841319991405</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H3" t="n">
         <v>67.7841319991405</v>
@@ -4409,22 +4409,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>473.7196087845913</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M3" t="n">
-        <v>473.7196087845913</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N3" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O3" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P3" t="n">
         <v>692.182535165835</v>
@@ -4436,25 +4436,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T3" t="n">
-        <v>584.0123685494465</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U3" t="n">
-        <v>373.9492252280883</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V3" t="n">
-        <v>187.8439499272761</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W3" t="n">
-        <v>187.8439499272761</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="X3" t="n">
-        <v>187.8439499272761</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.8439499272761</v>
+        <v>895.9268574506692</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.9147380363619</v>
+        <v>734.6358818613033</v>
       </c>
       <c r="C4" t="n">
-        <v>486.9147380363619</v>
+        <v>734.6358818613033</v>
       </c>
       <c r="D4" t="n">
-        <v>331.2816249388766</v>
+        <v>579.002768763818</v>
       </c>
       <c r="E4" t="n">
-        <v>175.7228127980791</v>
+        <v>423.4439566230205</v>
       </c>
       <c r="F4" t="n">
-        <v>18.39687801105209</v>
+        <v>423.4439566230205</v>
       </c>
       <c r="G4" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H4" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
@@ -4524,16 +4524,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>719.1985513072217</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>719.1985513072217</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X4" t="n">
-        <v>486.9147380363619</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.9147380363619</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="C5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="D5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="E5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="F5" t="n">
-        <v>398.1401596610398</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="G5" t="n">
-        <v>389.017808189447</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="H5" t="n">
         <v>156.7339949185873</v>
@@ -4573,19 +4573,19 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M5" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N5" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O5" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4606,13 +4606,13 @@
         <v>715.3374317791771</v>
       </c>
       <c r="W5" t="n">
-        <v>643.2780073615178</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.994194090658</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306.7357788384473</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="C6" t="n">
         <v>156.0815483985396</v>
@@ -4649,49 +4649,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N6" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>900.5991822500534</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>765.6685051499222</v>
       </c>
       <c r="T6" t="n">
-        <v>584.0123685494465</v>
+        <v>588.6846933488307</v>
       </c>
       <c r="U6" t="n">
-        <v>529.2757804673803</v>
+        <v>378.6215500274725</v>
       </c>
       <c r="V6" t="n">
-        <v>306.7357788384473</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="W6" t="n">
-        <v>306.7357788384473</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="X6" t="n">
-        <v>306.7357788384473</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="Y6" t="n">
-        <v>306.7357788384473</v>
+        <v>156.0815483985396</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.8695735478723</v>
+        <v>529.9882499700169</v>
       </c>
       <c r="C7" t="n">
-        <v>181.8695735478723</v>
+        <v>529.9882499700169</v>
       </c>
       <c r="D7" t="n">
-        <v>181.8695735478723</v>
+        <v>374.3551368725317</v>
       </c>
       <c r="E7" t="n">
-        <v>181.8695735478723</v>
+        <v>374.3551368725317</v>
       </c>
       <c r="F7" t="n">
-        <v>181.8695735478723</v>
+        <v>217.0292020855046</v>
       </c>
       <c r="G7" t="n">
-        <v>181.8695735478723</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I7" t="n">
         <v>48.77514818495014</v>
@@ -4758,19 +4758,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>822.47346669339</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V7" t="n">
-        <v>822.47346669339</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W7" t="n">
-        <v>822.47346669339</v>
+        <v>715.1962686613182</v>
       </c>
       <c r="X7" t="n">
-        <v>590.1896534225302</v>
+        <v>715.1962686613182</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.0775922391736</v>
+        <v>715.1962686613182</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.5600872817448</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="C8" t="n">
-        <v>687.5600872817448</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="D8" t="n">
-        <v>455.276274010885</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="E8" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F8" t="n">
-        <v>27.51922948264486</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4807,19 +4807,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L8" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M8" t="n">
-        <v>163.0466509198802</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N8" t="n">
-        <v>279.6756096381168</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O8" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4828,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="C9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="D9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="F9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G9" t="n">
         <v>156.0815483985396</v>
@@ -4883,25 +4883,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L9" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M9" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N9" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O9" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4919,16 +4919,16 @@
         <v>373.9492252280883</v>
       </c>
       <c r="V9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="X9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="Y9" t="n">
-        <v>156.0815483985396</v>
+        <v>276.1413663266751</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.77514818495014</v>
+        <v>407.9188086764298</v>
       </c>
       <c r="C10" t="n">
-        <v>48.77514818495014</v>
+        <v>407.9188086764298</v>
       </c>
       <c r="D10" t="n">
-        <v>48.77514818495014</v>
+        <v>337.4283856886698</v>
       </c>
       <c r="E10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="F10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="G10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="H10" t="n">
-        <v>48.77514818495014</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S10" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U10" t="n">
-        <v>745.6265879975296</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V10" t="n">
-        <v>513.3427747266697</v>
+        <v>593.126827367731</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0589614558099</v>
+        <v>593.126827367731</v>
       </c>
       <c r="X10" t="n">
-        <v>48.77514818495014</v>
+        <v>593.126827367731</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.77514818495014</v>
+        <v>593.126827367731</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.0716116054554</v>
+        <v>1350.082086741879</v>
       </c>
       <c r="C11" t="n">
-        <v>45.89611010838591</v>
+        <v>1350.082086741879</v>
       </c>
       <c r="D11" t="n">
-        <v>45.89611010838591</v>
+        <v>964.6409579585467</v>
       </c>
       <c r="E11" t="n">
-        <v>45.89611010838591</v>
+        <v>964.6409579585467</v>
       </c>
       <c r="F11" t="n">
-        <v>45.89611010838591</v>
+        <v>547.7465194885244</v>
       </c>
       <c r="G11" t="n">
-        <v>45.89611010838591</v>
+        <v>135.8390439977498</v>
       </c>
       <c r="H11" t="n">
-        <v>45.89611010838591</v>
+        <v>135.8390439977498</v>
       </c>
       <c r="I11" t="n">
         <v>45.89611010838591</v>
@@ -5044,19 +5044,19 @@
         <v>45.89611010838591</v>
       </c>
       <c r="K11" t="n">
-        <v>60.76705807310123</v>
+        <v>561.377233248008</v>
       </c>
       <c r="L11" t="n">
-        <v>103.2019292101609</v>
+        <v>1129.341595839284</v>
       </c>
       <c r="M11" t="n">
-        <v>671.1662918014365</v>
+        <v>1197.143700642251</v>
       </c>
       <c r="N11" t="n">
-        <v>1239.130654392712</v>
+        <v>1269.04188983209</v>
       </c>
       <c r="O11" t="n">
-        <v>1807.095016983988</v>
+        <v>1411.949254611244</v>
       </c>
       <c r="P11" t="n">
         <v>1937.055417255133</v>
@@ -5074,19 +5074,19 @@
         <v>1938.891029696265</v>
       </c>
       <c r="U11" t="n">
-        <v>1683.238722532562</v>
+        <v>1938.891029696265</v>
       </c>
       <c r="V11" t="n">
-        <v>1341.13191323608</v>
+        <v>1938.891029696265</v>
       </c>
       <c r="W11" t="n">
-        <v>970.1328782043674</v>
+        <v>1567.891994664553</v>
       </c>
       <c r="X11" t="n">
-        <v>835.5623206848543</v>
+        <v>1567.891994664553</v>
       </c>
       <c r="Y11" t="n">
-        <v>439.0716116054554</v>
+        <v>1350.082086741879</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>221.2030303967784</v>
       </c>
       <c r="K12" t="n">
-        <v>238.7979923622796</v>
+        <v>647.238104404506</v>
       </c>
       <c r="L12" t="n">
-        <v>292.5662418289172</v>
+        <v>1215.202466995782</v>
       </c>
       <c r="M12" t="n">
-        <v>610.1257021158904</v>
+        <v>1290.529442350835</v>
       </c>
       <c r="N12" t="n">
-        <v>1178.090064707166</v>
+        <v>1377.215717796361</v>
       </c>
       <c r="O12" t="n">
-        <v>1746.054427298442</v>
+        <v>1442.073857411308</v>
       </c>
       <c r="P12" t="n">
-        <v>2277.376209163418</v>
+        <v>1958.983720294084</v>
       </c>
       <c r="Q12" t="n">
         <v>2277.376209163418</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.157872393517</v>
+        <v>638.2935513382952</v>
       </c>
       <c r="C13" t="n">
-        <v>469.157872393517</v>
+        <v>468.0884334042844</v>
       </c>
       <c r="D13" t="n">
-        <v>469.157872393517</v>
+        <v>468.0884334042844</v>
       </c>
       <c r="E13" t="n">
-        <v>313.5990602527195</v>
+        <v>312.5296212634869</v>
       </c>
       <c r="F13" t="n">
-        <v>313.5990602527195</v>
+        <v>312.5296212634869</v>
       </c>
       <c r="G13" t="n">
-        <v>145.9080817551272</v>
+        <v>312.5296212634869</v>
       </c>
       <c r="H13" t="n">
-        <v>45.89611010838591</v>
+        <v>162.0573224440448</v>
       </c>
       <c r="I13" t="n">
         <v>45.89611010838591</v>
@@ -5223,28 +5223,28 @@
         <v>1464.673440747379</v>
       </c>
       <c r="R13" t="n">
-        <v>1366.090369044056</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="S13" t="n">
-        <v>1173.087153840047</v>
+        <v>1271.670225543369</v>
       </c>
       <c r="T13" t="n">
-        <v>939.7739696391194</v>
+        <v>1271.670225543369</v>
       </c>
       <c r="U13" t="n">
-        <v>654.3658910848183</v>
+        <v>986.2621469890684</v>
       </c>
       <c r="V13" t="n">
-        <v>654.3658910848183</v>
+        <v>986.2621469890684</v>
       </c>
       <c r="W13" t="n">
-        <v>654.3658910848183</v>
+        <v>986.2621469890684</v>
       </c>
       <c r="X13" t="n">
-        <v>654.3658910848183</v>
+        <v>752.1818247720514</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.3658910848183</v>
+        <v>752.1818247720514</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1898.314796339897</v>
+        <v>1680.309182192214</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.314796339897</v>
+        <v>1287.133680695144</v>
       </c>
       <c r="D14" t="n">
-        <v>1512.873667556564</v>
+        <v>1277.281548952638</v>
       </c>
       <c r="E14" t="n">
-        <v>1110.290142673109</v>
+        <v>874.6980240691828</v>
       </c>
       <c r="F14" t="n">
-        <v>769.0309995153274</v>
+        <v>457.8035855991605</v>
       </c>
       <c r="G14" t="n">
-        <v>357.1235240245528</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="H14" t="n">
         <v>45.89611010838591</v>
@@ -5278,25 +5278,25 @@
         <v>45.89611010838591</v>
       </c>
       <c r="J14" t="n">
-        <v>45.89611010838591</v>
+        <v>294.9660532966729</v>
       </c>
       <c r="K14" t="n">
-        <v>60.76705807310123</v>
+        <v>810.447176436295</v>
       </c>
       <c r="L14" t="n">
-        <v>248.2643990529699</v>
+        <v>852.8820475733546</v>
       </c>
       <c r="M14" t="n">
-        <v>316.0665038559373</v>
+        <v>1420.84641016463</v>
       </c>
       <c r="N14" t="n">
-        <v>884.0308664472129</v>
+        <v>1492.744599354469</v>
       </c>
       <c r="O14" t="n">
-        <v>1451.995229038489</v>
+        <v>1769.699342775406</v>
       </c>
       <c r="P14" t="n">
-        <v>1977.101391682378</v>
+        <v>2294.805505419296</v>
       </c>
       <c r="Q14" t="n">
         <v>2294.805505419296</v>
@@ -5308,22 +5308,22 @@
         <v>2294.805505419296</v>
       </c>
       <c r="T14" t="n">
-        <v>2294.805505419296</v>
+        <v>2076.799891271613</v>
       </c>
       <c r="U14" t="n">
-        <v>2294.805505419296</v>
+        <v>2076.799891271613</v>
       </c>
       <c r="V14" t="n">
-        <v>2294.805505419296</v>
+        <v>2076.799891271613</v>
       </c>
       <c r="W14" t="n">
-        <v>2294.805505419296</v>
+        <v>2076.799891271613</v>
       </c>
       <c r="X14" t="n">
-        <v>2294.805505419296</v>
+        <v>2076.799891271613</v>
       </c>
       <c r="Y14" t="n">
-        <v>1898.314796339897</v>
+        <v>1680.309182192214</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>221.2030303967784</v>
       </c>
       <c r="K15" t="n">
-        <v>238.7979923622796</v>
+        <v>647.238104404506</v>
       </c>
       <c r="L15" t="n">
-        <v>292.5662418289172</v>
+        <v>1200.790548013581</v>
       </c>
       <c r="M15" t="n">
-        <v>860.5306044201927</v>
+        <v>1276.117523368634</v>
       </c>
       <c r="N15" t="n">
-        <v>1195.519360963043</v>
+        <v>1362.80379881416</v>
       </c>
       <c r="O15" t="n">
-        <v>1763.483723554319</v>
+        <v>1427.661938429108</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.805505419296</v>
+        <v>1958.983720294084</v>
       </c>
       <c r="Q15" t="n">
-        <v>2294.805505419296</v>
+        <v>2277.376209163418</v>
       </c>
       <c r="R15" t="n">
         <v>2294.805505419296</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.60224105957</v>
+        <v>216.1012280423967</v>
       </c>
       <c r="C16" t="n">
-        <v>203.222044895413</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="D16" t="n">
-        <v>203.222044895413</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="E16" t="n">
-        <v>203.222044895413</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="F16" t="n">
         <v>45.89611010838591</v>
@@ -5460,28 +5460,28 @@
         <v>1464.673440747379</v>
       </c>
       <c r="R16" t="n">
-        <v>1366.090369044056</v>
+        <v>1375.145216403821</v>
       </c>
       <c r="S16" t="n">
-        <v>1173.087153840047</v>
+        <v>1375.145216403821</v>
       </c>
       <c r="T16" t="n">
-        <v>939.7739696391194</v>
+        <v>1141.832032202894</v>
       </c>
       <c r="U16" t="n">
-        <v>939.7739696391194</v>
+        <v>1141.832032202894</v>
       </c>
       <c r="V16" t="n">
-        <v>673.7946244599436</v>
+        <v>1141.832032202894</v>
       </c>
       <c r="W16" t="n">
-        <v>673.7946244599436</v>
+        <v>858.5016301340715</v>
       </c>
       <c r="X16" t="n">
-        <v>439.7143022429267</v>
+        <v>624.4213079170546</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.60224105957</v>
+        <v>401.309246733698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1359.911189053153</v>
+        <v>1952.698696122814</v>
       </c>
       <c r="C17" t="n">
-        <v>1359.911189053153</v>
+        <v>1559.523194625745</v>
       </c>
       <c r="D17" t="n">
         <v>1176.60148737803</v>
@@ -5515,22 +5515,22 @@
         <v>45.89611010838591</v>
       </c>
       <c r="J17" t="n">
-        <v>45.89611010838591</v>
+        <v>294.9660532966729</v>
       </c>
       <c r="K17" t="n">
-        <v>520.3573087645577</v>
+        <v>810.447176436295</v>
       </c>
       <c r="L17" t="n">
-        <v>562.7921799016174</v>
+        <v>852.8820475733546</v>
       </c>
       <c r="M17" t="n">
-        <v>1130.756542492893</v>
+        <v>920.684152376322</v>
       </c>
       <c r="N17" t="n">
-        <v>1698.720905084169</v>
+        <v>1201.734980184131</v>
       </c>
       <c r="O17" t="n">
-        <v>2266.685267675444</v>
+        <v>1769.699342775406</v>
       </c>
       <c r="P17" t="n">
         <v>2294.805505419296</v>
@@ -5542,25 +5542,25 @@
         <v>2294.805505419296</v>
       </c>
       <c r="S17" t="n">
-        <v>2156.896643843948</v>
+        <v>2294.805505419296</v>
       </c>
       <c r="T17" t="n">
-        <v>2156.896643843948</v>
+        <v>2294.805505419296</v>
       </c>
       <c r="U17" t="n">
-        <v>2156.896643843948</v>
+        <v>2294.805505419296</v>
       </c>
       <c r="V17" t="n">
-        <v>2156.896643843948</v>
+        <v>1952.698696122814</v>
       </c>
       <c r="W17" t="n">
-        <v>2156.896643843948</v>
+        <v>1952.698696122814</v>
       </c>
       <c r="X17" t="n">
-        <v>2156.896643843948</v>
+        <v>1952.698696122814</v>
       </c>
       <c r="Y17" t="n">
-        <v>1760.40593476455</v>
+        <v>1952.698696122814</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>45.89611010838591</v>
       </c>
       <c r="K18" t="n">
-        <v>180.0672846807433</v>
+        <v>63.49107207388715</v>
       </c>
       <c r="L18" t="n">
-        <v>233.8355341473808</v>
+        <v>562.6968587568208</v>
       </c>
       <c r="M18" t="n">
-        <v>309.1625095024337</v>
+        <v>1130.661221348096</v>
       </c>
       <c r="N18" t="n">
-        <v>877.1268720937094</v>
+        <v>1698.625583939372</v>
       </c>
       <c r="O18" t="n">
-        <v>1445.091234684985</v>
+        <v>1763.483723554319</v>
       </c>
       <c r="P18" t="n">
-        <v>1976.413016549961</v>
+        <v>2294.805505419296</v>
       </c>
       <c r="Q18" t="n">
         <v>2294.805505419296</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.9186404645067</v>
+        <v>770.9452823184197</v>
       </c>
       <c r="C19" t="n">
-        <v>472.7135225304959</v>
+        <v>600.7401643844089</v>
       </c>
       <c r="D19" t="n">
-        <v>472.7135225304959</v>
+        <v>445.1070512869236</v>
       </c>
       <c r="E19" t="n">
-        <v>319.3832572310719</v>
+        <v>445.1070512869236</v>
       </c>
       <c r="F19" t="n">
-        <v>162.0573224440448</v>
+        <v>287.7811164998966</v>
       </c>
       <c r="G19" t="n">
         <v>162.0573224440448</v>
@@ -5697,28 +5697,28 @@
         <v>1464.673440747379</v>
       </c>
       <c r="R19" t="n">
-        <v>1366.090369044056</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="S19" t="n">
-        <v>1366.090369044056</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="T19" t="n">
-        <v>1366.090369044056</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="U19" t="n">
-        <v>1366.090369044056</v>
+        <v>1179.265362193078</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.11102386488</v>
+        <v>1179.265362193078</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.11102386488</v>
+        <v>1179.265362193078</v>
       </c>
       <c r="X19" t="n">
-        <v>866.0307016478633</v>
+        <v>1179.265362193078</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.9186404645067</v>
+        <v>956.153301009721</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>447.0664579139167</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="C20" t="n">
-        <v>447.0664579139167</v>
+        <v>1973.950091652137</v>
       </c>
       <c r="D20" t="n">
-        <v>447.0664579139167</v>
+        <v>1588.508962868805</v>
       </c>
       <c r="E20" t="n">
-        <v>447.0664579139167</v>
+        <v>1185.92543798535</v>
       </c>
       <c r="F20" t="n">
-        <v>447.0664579139167</v>
+        <v>769.0309995153274</v>
       </c>
       <c r="G20" t="n">
-        <v>447.0664579139167</v>
+        <v>357.1235240245528</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8390439977498</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="I20" t="n">
         <v>45.89611010838591</v>
@@ -5758,46 +5758,46 @@
         <v>810.447176436295</v>
       </c>
       <c r="L20" t="n">
-        <v>1378.411539027571</v>
+        <v>1213.025459169928</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.213643830538</v>
+        <v>1280.827563972895</v>
       </c>
       <c r="N20" t="n">
-        <v>1698.720905084169</v>
+        <v>1352.725753162734</v>
       </c>
       <c r="O20" t="n">
-        <v>2266.685267675444</v>
+        <v>1411.949254611244</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.805505419296</v>
+        <v>1937.055417255133</v>
       </c>
       <c r="Q20" t="n">
-        <v>2294.805505419296</v>
+        <v>2254.759530992051</v>
       </c>
       <c r="R20" t="n">
         <v>2294.805505419296</v>
       </c>
       <c r="S20" t="n">
-        <v>2294.805505419296</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="T20" t="n">
-        <v>2294.805505419296</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="U20" t="n">
-        <v>2294.805505419296</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="V20" t="n">
-        <v>1952.698696122814</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="W20" t="n">
-        <v>1581.699661091101</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="X20" t="n">
-        <v>1192.247056024158</v>
+        <v>2156.896643843948</v>
       </c>
       <c r="Y20" t="n">
-        <v>795.7563469447593</v>
+        <v>2156.896643843948</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>647.238104404506</v>
       </c>
       <c r="L21" t="n">
-        <v>701.0063538711435</v>
+        <v>1200.790548013581</v>
       </c>
       <c r="M21" t="n">
-        <v>812.2687324787623</v>
+        <v>1276.117523368634</v>
       </c>
       <c r="N21" t="n">
-        <v>1380.233095070038</v>
+        <v>1362.80379881416</v>
       </c>
       <c r="O21" t="n">
-        <v>1445.091234684985</v>
+        <v>1427.661938429108</v>
       </c>
       <c r="P21" t="n">
-        <v>1976.413016549961</v>
+        <v>1958.983720294084</v>
       </c>
       <c r="Q21" t="n">
-        <v>2294.805505419296</v>
+        <v>2277.376209163418</v>
       </c>
       <c r="R21" t="n">
         <v>2294.805505419296</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1455.699648246777</v>
+        <v>489.0472940944439</v>
       </c>
       <c r="C22" t="n">
-        <v>1285.494530312766</v>
+        <v>318.8421761604331</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.861417215281</v>
+        <v>196.368408927828</v>
       </c>
       <c r="E22" t="n">
-        <v>1129.861417215281</v>
+        <v>196.368408927828</v>
       </c>
       <c r="F22" t="n">
-        <v>992.1893871159615</v>
+        <v>196.368408927828</v>
       </c>
       <c r="G22" t="n">
-        <v>992.1893871159615</v>
+        <v>196.368408927828</v>
       </c>
       <c r="H22" t="n">
-        <v>992.1893871159615</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="I22" t="n">
-        <v>876.0281747803026</v>
+        <v>45.89611010838591</v>
       </c>
       <c r="J22" t="n">
-        <v>885.271655495603</v>
+        <v>55.13959082368631</v>
       </c>
       <c r="K22" t="n">
-        <v>1031.22398012577</v>
+        <v>201.0919154538532</v>
       </c>
       <c r="L22" t="n">
-        <v>1277.39966809736</v>
+        <v>447.2676034254433</v>
       </c>
       <c r="M22" t="n">
-        <v>1550.199409169524</v>
+        <v>720.0673444976071</v>
       </c>
       <c r="N22" t="n">
-        <v>1817.840235180072</v>
+        <v>987.708170508155</v>
       </c>
       <c r="O22" t="n">
-        <v>2058.549346836213</v>
+        <v>1228.417282164296</v>
       </c>
       <c r="P22" t="n">
-        <v>2245.171705097383</v>
+        <v>1415.039640425466</v>
       </c>
       <c r="Q22" t="n">
-        <v>2294.805505419296</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="R22" t="n">
-        <v>2196.222433715973</v>
+        <v>1464.673440747379</v>
       </c>
       <c r="S22" t="n">
-        <v>2196.222433715973</v>
+        <v>1271.670225543369</v>
       </c>
       <c r="T22" t="n">
-        <v>2196.222433715973</v>
+        <v>1038.357041342442</v>
       </c>
       <c r="U22" t="n">
-        <v>2196.222433715973</v>
+        <v>1038.357041342442</v>
       </c>
       <c r="V22" t="n">
-        <v>2196.222433715973</v>
+        <v>772.3776961632663</v>
       </c>
       <c r="W22" t="n">
-        <v>1912.89203164715</v>
+        <v>489.0472940944439</v>
       </c>
       <c r="X22" t="n">
-        <v>1678.811709430134</v>
+        <v>489.0472940944439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1455.699648246777</v>
+        <v>489.0472940944439</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2461.583810439619</v>
+        <v>2412.894320889728</v>
       </c>
       <c r="C23" t="n">
-        <v>2068.40830894255</v>
+        <v>2019.718819392658</v>
       </c>
       <c r="D23" t="n">
-        <v>1682.967180159218</v>
+        <v>1634.277690609326</v>
       </c>
       <c r="E23" t="n">
-        <v>1280.383655275762</v>
+        <v>1231.694165725871</v>
       </c>
       <c r="F23" t="n">
-        <v>863.4892168057398</v>
+        <v>814.7997272558483</v>
       </c>
       <c r="G23" t="n">
-        <v>451.5817413149653</v>
+        <v>402.8922517650738</v>
       </c>
       <c r="H23" t="n">
-        <v>181.6077717382707</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="I23" t="n">
         <v>91.66483784890684</v>
@@ -6016,25 +6016,25 @@
         <v>4583.241892445342</v>
       </c>
       <c r="S23" t="n">
-        <v>4445.333030869995</v>
+        <v>4583.241892445342</v>
       </c>
       <c r="T23" t="n">
-        <v>4227.327416722313</v>
+        <v>4568.090532239365</v>
       </c>
       <c r="U23" t="n">
-        <v>3971.675109558609</v>
+        <v>4312.438225075661</v>
       </c>
       <c r="V23" t="n">
-        <v>3629.568300262128</v>
+        <v>3970.331415779179</v>
       </c>
       <c r="W23" t="n">
-        <v>3258.569265230415</v>
+        <v>3599.332380747467</v>
       </c>
       <c r="X23" t="n">
-        <v>3258.569265230415</v>
+        <v>3209.879775680523</v>
       </c>
       <c r="Y23" t="n">
-        <v>2862.078556151016</v>
+        <v>2813.389066601124</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>91.66483784890684</v>
       </c>
       <c r="K24" t="n">
-        <v>109.2597998144081</v>
+        <v>347.6060162350326</v>
       </c>
       <c r="L24" t="n">
-        <v>735.7538785677079</v>
+        <v>974.1000949883324</v>
       </c>
       <c r="M24" t="n">
-        <v>1530.315754378261</v>
+        <v>1049.427070343385</v>
       </c>
       <c r="N24" t="n">
-        <v>2236.228211567412</v>
+        <v>1136.113345788912</v>
       </c>
       <c r="O24" t="n">
-        <v>2301.086351182359</v>
+        <v>1809.25245129484</v>
       </c>
       <c r="P24" t="n">
         <v>2340.574233159816</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>261.8699557829176</v>
+        <v>868.0417663962251</v>
       </c>
       <c r="C25" t="n">
-        <v>91.66483784890684</v>
+        <v>697.8366484622143</v>
       </c>
       <c r="D25" t="n">
-        <v>91.66483784890684</v>
+        <v>542.2035353647291</v>
       </c>
       <c r="E25" t="n">
-        <v>91.66483784890684</v>
+        <v>386.6447232239316</v>
       </c>
       <c r="F25" t="n">
-        <v>91.66483784890684</v>
+        <v>229.3187884369045</v>
       </c>
       <c r="G25" t="n">
-        <v>91.66483784890684</v>
+        <v>207.8260501845657</v>
       </c>
       <c r="H25" t="n">
-        <v>91.66483784890684</v>
+        <v>207.8260501845657</v>
       </c>
       <c r="I25" t="n">
         <v>91.66483784890684</v>
@@ -6171,28 +6171,28 @@
         <v>1510.4421684879</v>
       </c>
       <c r="R25" t="n">
-        <v>1411.859096784577</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="S25" t="n">
-        <v>1218.855881580568</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="T25" t="n">
-        <v>985.5426973796403</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="U25" t="n">
-        <v>700.1346188253392</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="V25" t="n">
-        <v>495.9502779999345</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="W25" t="n">
-        <v>495.9502779999345</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="X25" t="n">
-        <v>261.8699557829176</v>
+        <v>1276.361846270883</v>
       </c>
       <c r="Y25" t="n">
-        <v>261.8699557829176</v>
+        <v>1053.249785087526</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2502.837254779092</v>
+        <v>2117.39612599576</v>
       </c>
       <c r="C26" t="n">
-        <v>2109.661753282022</v>
+        <v>1724.22062449869</v>
       </c>
       <c r="D26" t="n">
         <v>1724.22062449869</v>
@@ -6253,25 +6253,25 @@
         <v>4583.241892445342</v>
       </c>
       <c r="S26" t="n">
-        <v>4533.93227097993</v>
+        <v>4490.597951493079</v>
       </c>
       <c r="T26" t="n">
-        <v>4315.926656832247</v>
+        <v>4272.592337345396</v>
       </c>
       <c r="U26" t="n">
-        <v>4060.274349668543</v>
+        <v>4016.940030181693</v>
       </c>
       <c r="V26" t="n">
-        <v>4060.274349668543</v>
+        <v>3674.833220885211</v>
       </c>
       <c r="W26" t="n">
-        <v>3689.275314636831</v>
+        <v>3303.834185853499</v>
       </c>
       <c r="X26" t="n">
-        <v>3299.822709569888</v>
+        <v>2914.381580786555</v>
       </c>
       <c r="Y26" t="n">
-        <v>2903.332000490489</v>
+        <v>2517.890871707156</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>91.66483784890684</v>
       </c>
       <c r="J27" t="n">
-        <v>91.66483784890684</v>
+        <v>266.9717581372993</v>
       </c>
       <c r="K27" t="n">
-        <v>517.6999118566345</v>
+        <v>693.0068321450269</v>
       </c>
       <c r="L27" t="n">
-        <v>571.4681613232719</v>
+        <v>1246.559275754102</v>
       </c>
       <c r="M27" t="n">
-        <v>1366.030037133825</v>
+        <v>1321.886251109155</v>
       </c>
       <c r="N27" t="n">
-        <v>1452.716312579351</v>
+        <v>1408.572526554681</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.855418085279</v>
+        <v>1473.430666169628</v>
       </c>
       <c r="P27" t="n">
-        <v>2340.574233159816</v>
+        <v>2004.752448034605</v>
       </c>
       <c r="Q27" t="n">
-        <v>2340.574233159816</v>
+        <v>2323.144936903939</v>
       </c>
       <c r="R27" t="n">
         <v>2340.574233159816</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>898.0787943058197</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="C28" t="n">
-        <v>727.8736763718089</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="D28" t="n">
-        <v>572.2405632743237</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6817511335262</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="F28" t="n">
-        <v>259.3558163464991</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="G28" t="n">
         <v>91.66483784890684</v>
@@ -6414,22 +6414,22 @@
         <v>1510.4421684879</v>
       </c>
       <c r="T28" t="n">
-        <v>1510.4421684879</v>
+        <v>1277.128984286972</v>
       </c>
       <c r="U28" t="n">
-        <v>1510.4421684879</v>
+        <v>991.7209057326712</v>
       </c>
       <c r="V28" t="n">
-        <v>1510.4421684879</v>
+        <v>725.7415605534954</v>
       </c>
       <c r="W28" t="n">
-        <v>1227.111766419077</v>
+        <v>442.4111584846731</v>
       </c>
       <c r="X28" t="n">
-        <v>1083.286812997121</v>
+        <v>208.3308362676562</v>
       </c>
       <c r="Y28" t="n">
-        <v>1083.286812997121</v>
+        <v>91.66483784890684</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2502.837254779092</v>
+        <v>2412.894320889728</v>
       </c>
       <c r="C29" t="n">
-        <v>2109.661753282022</v>
+        <v>2019.718819392658</v>
       </c>
       <c r="D29" t="n">
-        <v>1724.22062449869</v>
+        <v>1634.277690609326</v>
       </c>
       <c r="E29" t="n">
-        <v>1321.637099615235</v>
+        <v>1231.694165725871</v>
       </c>
       <c r="F29" t="n">
-        <v>904.7426611452122</v>
+        <v>814.7997272558483</v>
       </c>
       <c r="G29" t="n">
-        <v>492.8351856544376</v>
+        <v>402.8922517650738</v>
       </c>
       <c r="H29" t="n">
-        <v>181.6077717382707</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="I29" t="n">
         <v>91.66483784890684</v>
       </c>
       <c r="J29" t="n">
-        <v>340.7347810371939</v>
+        <v>340.7347810371938</v>
       </c>
       <c r="K29" t="n">
-        <v>856.215904176816</v>
+        <v>856.2159041768159</v>
       </c>
       <c r="L29" t="n">
         <v>1543.686755065591</v>
@@ -6481,7 +6481,7 @@
         <v>3700.385641637291</v>
       </c>
       <c r="P29" t="n">
-        <v>4225.49180428118</v>
+        <v>4225.491804281181</v>
       </c>
       <c r="Q29" t="n">
         <v>4543.195918018098</v>
@@ -6490,25 +6490,25 @@
         <v>4583.241892445342</v>
       </c>
       <c r="S29" t="n">
-        <v>4445.333030869995</v>
+        <v>4583.241892445342</v>
       </c>
       <c r="T29" t="n">
-        <v>4227.327416722313</v>
+        <v>4568.090532239365</v>
       </c>
       <c r="U29" t="n">
-        <v>3971.675109558609</v>
+        <v>4312.438225075661</v>
       </c>
       <c r="V29" t="n">
-        <v>3629.568300262128</v>
+        <v>3970.331415779179</v>
       </c>
       <c r="W29" t="n">
-        <v>3258.569265230415</v>
+        <v>3599.332380747467</v>
       </c>
       <c r="X29" t="n">
-        <v>2869.116660163472</v>
+        <v>3209.879775680523</v>
       </c>
       <c r="Y29" t="n">
-        <v>2502.837254779092</v>
+        <v>2813.389066601124</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>91.66483784890684</v>
       </c>
       <c r="K30" t="n">
-        <v>109.2597998144081</v>
+        <v>517.6999118566345</v>
       </c>
       <c r="L30" t="n">
-        <v>735.7538785677079</v>
+        <v>1144.193990609934</v>
       </c>
       <c r="M30" t="n">
-        <v>1530.315754378261</v>
+        <v>1219.520965964987</v>
       </c>
       <c r="N30" t="n">
-        <v>1627.947245676431</v>
+        <v>1306.207241410514</v>
       </c>
       <c r="O30" t="n">
-        <v>2301.086351182359</v>
+        <v>1809.25245129484</v>
       </c>
       <c r="P30" t="n">
         <v>2340.574233159816</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>363.459163282051</v>
+        <v>261.8699557829176</v>
       </c>
       <c r="C31" t="n">
-        <v>363.459163282051</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="D31" t="n">
-        <v>207.8260501845657</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="E31" t="n">
-        <v>207.8260501845657</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="F31" t="n">
-        <v>207.8260501845657</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="G31" t="n">
-        <v>207.8260501845657</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="H31" t="n">
-        <v>207.8260501845657</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="I31" t="n">
         <v>91.66483784890684</v>
@@ -6645,28 +6645,28 @@
         <v>1510.4421684879</v>
       </c>
       <c r="R31" t="n">
-        <v>1411.859096784577</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="S31" t="n">
-        <v>1218.855881580568</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="T31" t="n">
-        <v>1166.277966122191</v>
+        <v>1455.657781608069</v>
       </c>
       <c r="U31" t="n">
-        <v>880.8698875678901</v>
+        <v>1170.249703053768</v>
       </c>
       <c r="V31" t="n">
-        <v>880.8698875678901</v>
+        <v>904.2703578745925</v>
       </c>
       <c r="W31" t="n">
-        <v>597.5394854990678</v>
+        <v>904.2703578745925</v>
       </c>
       <c r="X31" t="n">
-        <v>363.459163282051</v>
+        <v>670.1900356575755</v>
       </c>
       <c r="Y31" t="n">
-        <v>363.459163282051</v>
+        <v>447.0779744742189</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2072.131205372676</v>
+        <v>2412.894320889728</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.955703875607</v>
+        <v>2019.718819392658</v>
       </c>
       <c r="D32" t="n">
-        <v>1293.514575092274</v>
+        <v>1634.277690609326</v>
       </c>
       <c r="E32" t="n">
-        <v>1293.514575092274</v>
+        <v>1231.694165725871</v>
       </c>
       <c r="F32" t="n">
-        <v>876.6201366222521</v>
+        <v>814.7997272558483</v>
       </c>
       <c r="G32" t="n">
-        <v>492.8351856544376</v>
+        <v>402.8922517650738</v>
       </c>
       <c r="H32" t="n">
-        <v>181.6077717382707</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="I32" t="n">
         <v>91.66483784890684</v>
       </c>
       <c r="J32" t="n">
-        <v>340.7347810371938</v>
+        <v>340.7347810371939</v>
       </c>
       <c r="K32" t="n">
-        <v>856.2159041768159</v>
+        <v>856.215904176816</v>
       </c>
       <c r="L32" t="n">
         <v>1543.686755065591</v>
@@ -6718,7 +6718,7 @@
         <v>3700.385641637291</v>
       </c>
       <c r="P32" t="n">
-        <v>4225.491804281181</v>
+        <v>4225.49180428118</v>
       </c>
       <c r="Q32" t="n">
         <v>4543.195918018098</v>
@@ -6727,25 +6727,25 @@
         <v>4583.241892445342</v>
       </c>
       <c r="S32" t="n">
-        <v>4445.333030869995</v>
+        <v>4583.241892445342</v>
       </c>
       <c r="T32" t="n">
-        <v>4227.327416722313</v>
+        <v>4568.090532239365</v>
       </c>
       <c r="U32" t="n">
-        <v>3971.675109558609</v>
+        <v>4312.438225075661</v>
       </c>
       <c r="V32" t="n">
-        <v>3629.568300262128</v>
+        <v>3970.331415779179</v>
       </c>
       <c r="W32" t="n">
-        <v>3258.569265230415</v>
+        <v>3599.332380747467</v>
       </c>
       <c r="X32" t="n">
-        <v>2869.116660163472</v>
+        <v>3209.879775680523</v>
       </c>
       <c r="Y32" t="n">
-        <v>2472.625951084073</v>
+        <v>2813.389066601124</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>91.66483784890684</v>
       </c>
       <c r="J33" t="n">
-        <v>266.9717581372993</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="K33" t="n">
-        <v>284.5667201028006</v>
+        <v>347.6060162350325</v>
       </c>
       <c r="L33" t="n">
-        <v>338.3349695694382</v>
+        <v>974.1000949883323</v>
       </c>
       <c r="M33" t="n">
-        <v>1090.853084316367</v>
+        <v>1049.427070343385</v>
       </c>
       <c r="N33" t="n">
-        <v>1917.835722698077</v>
+        <v>1136.113345788912</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.693862313025</v>
+        <v>1809.25245129484</v>
       </c>
       <c r="P33" t="n">
-        <v>2022.181744290482</v>
+        <v>2340.574233159816</v>
       </c>
       <c r="Q33" t="n">
         <v>2340.574233159816</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3774.08068271441</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="C34" t="n">
-        <v>3603.875564780399</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="D34" t="n">
-        <v>3603.875564780399</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="E34" t="n">
-        <v>3448.316752639601</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="F34" t="n">
-        <v>3448.316752639601</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="G34" t="n">
-        <v>3280.625774142009</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="H34" t="n">
-        <v>3280.625774142009</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="I34" t="n">
-        <v>3164.46456180635</v>
+        <v>91.66483784890684</v>
       </c>
       <c r="J34" t="n">
-        <v>3173.70804252165</v>
+        <v>100.9083185642072</v>
       </c>
       <c r="K34" t="n">
-        <v>3319.660367151817</v>
+        <v>246.8606431943741</v>
       </c>
       <c r="L34" t="n">
-        <v>3565.836055123407</v>
+        <v>493.0363311659642</v>
       </c>
       <c r="M34" t="n">
-        <v>3838.635796195571</v>
+        <v>765.8360722381281</v>
       </c>
       <c r="N34" t="n">
-        <v>4106.276622206119</v>
+        <v>1033.476898248676</v>
       </c>
       <c r="O34" t="n">
-        <v>4346.985733862261</v>
+        <v>1274.186009904817</v>
       </c>
       <c r="P34" t="n">
-        <v>4533.60809212343</v>
+        <v>1460.808368165987</v>
       </c>
       <c r="Q34" t="n">
-        <v>4583.241892445342</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="R34" t="n">
-        <v>4583.241892445342</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="S34" t="n">
-        <v>4583.241892445342</v>
+        <v>1510.4421684879</v>
       </c>
       <c r="T34" t="n">
-        <v>4349.928708244415</v>
+        <v>1277.128984286972</v>
       </c>
       <c r="U34" t="n">
-        <v>4349.928708244415</v>
+        <v>991.7209057326712</v>
       </c>
       <c r="V34" t="n">
-        <v>4349.928708244415</v>
+        <v>725.7415605534954</v>
       </c>
       <c r="W34" t="n">
-        <v>4182.400762589067</v>
+        <v>442.4111584846731</v>
       </c>
       <c r="X34" t="n">
-        <v>4182.400762589067</v>
+        <v>208.3308362676562</v>
       </c>
       <c r="Y34" t="n">
-        <v>3959.288701405711</v>
+        <v>91.66483784890684</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1583.059521539039</v>
+        <v>1575.325148825302</v>
       </c>
       <c r="C35" t="n">
-        <v>1189.88402004197</v>
+        <v>1575.325148825302</v>
       </c>
       <c r="D35" t="n">
         <v>1189.88402004197</v>
@@ -6937,25 +6937,25 @@
         <v>64.16560575157303</v>
       </c>
       <c r="J35" t="n">
-        <v>313.23554893986</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="K35" t="n">
-        <v>828.7166720794821</v>
+        <v>79.03655371628837</v>
       </c>
       <c r="L35" t="n">
-        <v>871.1515432165419</v>
+        <v>766.5074046050637</v>
       </c>
       <c r="M35" t="n">
-        <v>1288.506044292361</v>
+        <v>1528.538210534361</v>
       </c>
       <c r="N35" t="n">
-        <v>2035.842823544068</v>
+        <v>2275.874989786069</v>
       </c>
       <c r="O35" t="n">
-        <v>2683.174124934762</v>
+        <v>2365.470011197845</v>
       </c>
       <c r="P35" t="n">
-        <v>3208.280287578651</v>
+        <v>2890.576173841734</v>
       </c>
       <c r="Q35" t="n">
         <v>3208.280287578651</v>
@@ -6973,16 +6973,16 @@
         <v>2596.713504691918</v>
       </c>
       <c r="V35" t="n">
-        <v>2596.713504691918</v>
+        <v>2335.776788923958</v>
       </c>
       <c r="W35" t="n">
-        <v>2596.713504691918</v>
+        <v>1964.777753892246</v>
       </c>
       <c r="X35" t="n">
-        <v>2207.260899624975</v>
+        <v>1575.325148825302</v>
       </c>
       <c r="Y35" t="n">
-        <v>1983.554267250436</v>
+        <v>1575.325148825302</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>64.16560575157303</v>
       </c>
       <c r="J36" t="n">
-        <v>64.16560575157303</v>
+        <v>239.4725260399655</v>
       </c>
       <c r="K36" t="n">
-        <v>490.2006797593007</v>
+        <v>665.5076000476931</v>
       </c>
       <c r="L36" t="n">
-        <v>628.2083740216644</v>
+        <v>1219.060043656768</v>
       </c>
       <c r="M36" t="n">
-        <v>703.5353493767175</v>
+        <v>1294.387019011821</v>
       </c>
       <c r="N36" t="n">
-        <v>790.2216248222438</v>
+        <v>1381.073294457347</v>
       </c>
       <c r="O36" t="n">
-        <v>1463.360730328172</v>
+        <v>1445.931434072294</v>
       </c>
       <c r="P36" t="n">
-        <v>1994.682512193148</v>
+        <v>1977.253215937271</v>
       </c>
       <c r="Q36" t="n">
-        <v>2313.075001062482</v>
+        <v>2295.645704806605</v>
       </c>
       <c r="R36" t="n">
         <v>2313.075001062482</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>813.9632827251971</v>
+        <v>494.9161148591244</v>
       </c>
       <c r="C37" t="n">
-        <v>643.7581647911863</v>
+        <v>494.9161148591244</v>
       </c>
       <c r="D37" t="n">
-        <v>488.1250516937011</v>
+        <v>494.9161148591244</v>
       </c>
       <c r="E37" t="n">
-        <v>488.1250516937011</v>
+        <v>494.9161148591244</v>
       </c>
       <c r="F37" t="n">
-        <v>330.799116906674</v>
+        <v>382.3288830686074</v>
       </c>
       <c r="G37" t="n">
-        <v>330.799116906674</v>
+        <v>214.6379045710151</v>
       </c>
       <c r="H37" t="n">
-        <v>180.3268180872319</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="I37" t="n">
         <v>64.16560575157303</v>
@@ -7119,28 +7119,28 @@
         <v>1482.942936390566</v>
       </c>
       <c r="R37" t="n">
-        <v>1384.359864687243</v>
+        <v>1482.942936390566</v>
       </c>
       <c r="S37" t="n">
-        <v>1384.359864687243</v>
+        <v>1482.942936390566</v>
       </c>
       <c r="T37" t="n">
-        <v>1151.046680486316</v>
+        <v>1482.942936390566</v>
       </c>
       <c r="U37" t="n">
-        <v>865.6386019320147</v>
+        <v>1197.534857836265</v>
       </c>
       <c r="V37" t="n">
-        <v>865.6386019320147</v>
+        <v>1197.534857836265</v>
       </c>
       <c r="W37" t="n">
-        <v>813.9632827251971</v>
+        <v>914.2044557674426</v>
       </c>
       <c r="X37" t="n">
-        <v>813.9632827251971</v>
+        <v>680.1241335504257</v>
       </c>
       <c r="Y37" t="n">
-        <v>813.9632827251971</v>
+        <v>680.1241335504257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1311.665923733067</v>
+        <v>1687.31336901497</v>
       </c>
       <c r="C38" t="n">
-        <v>1311.665923733067</v>
+        <v>1294.137867517901</v>
       </c>
       <c r="D38" t="n">
-        <v>1311.665923733067</v>
+        <v>1294.137867517901</v>
       </c>
       <c r="E38" t="n">
-        <v>909.0823988496111</v>
+        <v>1294.137867517901</v>
       </c>
       <c r="F38" t="n">
-        <v>492.1879603795888</v>
+        <v>877.2434290478784</v>
       </c>
       <c r="G38" t="n">
-        <v>375.3930196677399</v>
+        <v>465.3359535571038</v>
       </c>
       <c r="H38" t="n">
-        <v>64.16560575157303</v>
+        <v>154.1085396409369</v>
       </c>
       <c r="I38" t="n">
         <v>64.16560575157303</v>
@@ -7177,25 +7177,25 @@
         <v>313.23554893986</v>
       </c>
       <c r="K38" t="n">
-        <v>828.7166720794821</v>
+        <v>328.1064969045754</v>
       </c>
       <c r="L38" t="n">
-        <v>871.1515432165419</v>
+        <v>1015.577347793351</v>
       </c>
       <c r="M38" t="n">
-        <v>938.9536480195093</v>
+        <v>1777.608153722649</v>
       </c>
       <c r="N38" t="n">
-        <v>1678.092735379906</v>
+        <v>2524.944932974356</v>
       </c>
       <c r="O38" t="n">
-        <v>2325.4240367706</v>
+        <v>2584.168434422867</v>
       </c>
       <c r="P38" t="n">
-        <v>2850.530199414489</v>
+        <v>2890.576173841734</v>
       </c>
       <c r="Q38" t="n">
-        <v>3168.234313151407</v>
+        <v>3208.280287578651</v>
       </c>
       <c r="R38" t="n">
         <v>3208.280287578651</v>
@@ -7204,22 +7204,22 @@
         <v>3070.371426003304</v>
       </c>
       <c r="T38" t="n">
-        <v>3070.371426003304</v>
+        <v>2852.365811855621</v>
       </c>
       <c r="U38" t="n">
-        <v>2814.719118839601</v>
+        <v>2596.713504691918</v>
       </c>
       <c r="V38" t="n">
-        <v>2472.612309543119</v>
+        <v>2484.298823805766</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.613274511407</v>
+        <v>2484.298823805766</v>
       </c>
       <c r="X38" t="n">
-        <v>1712.160669444464</v>
+        <v>2484.298823805766</v>
       </c>
       <c r="Y38" t="n">
-        <v>1712.160669444464</v>
+        <v>2087.808114726367</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1728.45442912222</v>
+        <v>833.249142606052</v>
       </c>
       <c r="C39" t="n">
-        <v>1577.800198682312</v>
+        <v>682.5949121661442</v>
       </c>
       <c r="D39" t="n">
-        <v>1447.711231303793</v>
+        <v>552.5059447876246</v>
       </c>
       <c r="E39" t="n">
-        <v>1311.264740414681</v>
+        <v>416.0594538985123</v>
       </c>
       <c r="F39" t="n">
-        <v>1186.832934297812</v>
+        <v>291.6276477816441</v>
       </c>
       <c r="G39" t="n">
-        <v>1067.444750392352</v>
+        <v>172.2394638761842</v>
       </c>
       <c r="H39" t="n">
-        <v>985.6339046856366</v>
+        <v>90.42861816946854</v>
       </c>
       <c r="I39" t="n">
-        <v>959.3708922677411</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="J39" t="n">
-        <v>1134.677812556134</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="K39" t="n">
-        <v>1560.712886563861</v>
+        <v>81.76056771707428</v>
       </c>
       <c r="L39" t="n">
-        <v>1824.37685315129</v>
+        <v>135.5288171837118</v>
       </c>
       <c r="M39" t="n">
-        <v>1899.703828506343</v>
+        <v>929.5781883594281</v>
       </c>
       <c r="N39" t="n">
-        <v>1986.39010395187</v>
+        <v>1723.627559535144</v>
       </c>
       <c r="O39" t="n">
-        <v>2659.529209457798</v>
+        <v>2273.587119085025</v>
       </c>
       <c r="P39" t="n">
-        <v>3190.850991322774</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="Q39" t="n">
-        <v>3190.850991322774</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="R39" t="n">
-        <v>3208.280287578651</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="S39" t="n">
-        <v>3085.824917873395</v>
+        <v>2190.619631357226</v>
       </c>
       <c r="T39" t="n">
-        <v>2911.548262505808</v>
+        <v>2016.342975989638</v>
       </c>
       <c r="U39" t="n">
-        <v>2701.529305633309</v>
+        <v>1806.324019117141</v>
       </c>
       <c r="V39" t="n">
-        <v>2478.989304004376</v>
+        <v>1583.784017488208</v>
       </c>
       <c r="W39" t="n">
-        <v>2248.872058137663</v>
+        <v>1353.666771621494</v>
       </c>
       <c r="X39" t="n">
-        <v>2059.564980487674</v>
+        <v>1164.359693971506</v>
       </c>
       <c r="Y39" t="n">
-        <v>1880.250763563182</v>
+        <v>985.0454770470134</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>824.3283264357624</v>
+        <v>221.4915405386001</v>
       </c>
       <c r="C40" t="n">
-        <v>654.1232085017516</v>
+        <v>221.4915405386001</v>
       </c>
       <c r="D40" t="n">
-        <v>498.4900954042663</v>
+        <v>221.4915405386001</v>
       </c>
       <c r="E40" t="n">
-        <v>498.4900954042663</v>
+        <v>221.4915405386001</v>
       </c>
       <c r="F40" t="n">
-        <v>498.4900954042663</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="G40" t="n">
-        <v>330.799116906674</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="H40" t="n">
-        <v>180.3268180872319</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="I40" t="n">
         <v>64.16560575157303</v>
@@ -7359,25 +7359,25 @@
         <v>1482.942936390566</v>
       </c>
       <c r="S40" t="n">
-        <v>1482.942936390566</v>
+        <v>1289.939721186557</v>
       </c>
       <c r="T40" t="n">
-        <v>1466.728728527437</v>
+        <v>1289.939721186557</v>
       </c>
       <c r="U40" t="n">
-        <v>1466.728728527437</v>
+        <v>1004.531642632256</v>
       </c>
       <c r="V40" t="n">
-        <v>1466.728728527437</v>
+        <v>738.9022648244393</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.728728527437</v>
+        <v>455.571862755617</v>
       </c>
       <c r="X40" t="n">
-        <v>1232.64840631042</v>
+        <v>221.4915405386001</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.536345127064</v>
+        <v>221.4915405386001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1424.083111260727</v>
+        <v>1606.778458511992</v>
       </c>
       <c r="C41" t="n">
-        <v>1030.907609763658</v>
+        <v>1606.778458511992</v>
       </c>
       <c r="D41" t="n">
-        <v>645.4664809803257</v>
+        <v>1606.778458511992</v>
       </c>
       <c r="E41" t="n">
-        <v>242.8829560968703</v>
+        <v>1204.194933628537</v>
       </c>
       <c r="F41" t="n">
-        <v>154.1085396409369</v>
+        <v>787.3004951585144</v>
       </c>
       <c r="G41" t="n">
-        <v>154.1085396409369</v>
+        <v>375.3930196677399</v>
       </c>
       <c r="H41" t="n">
-        <v>154.1085396409369</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="I41" t="n">
         <v>64.16560575157303</v>
       </c>
       <c r="J41" t="n">
-        <v>305.0378570485493</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="K41" t="n">
-        <v>820.5189801881714</v>
+        <v>79.03655371628837</v>
       </c>
       <c r="L41" t="n">
-        <v>862.9538513252312</v>
+        <v>766.5074046050637</v>
       </c>
       <c r="M41" t="n">
-        <v>930.7559561281986</v>
+        <v>1288.506044292361</v>
       </c>
       <c r="N41" t="n">
-        <v>1678.092735379906</v>
+        <v>2035.842823544068</v>
       </c>
       <c r="O41" t="n">
-        <v>2325.4240367706</v>
+        <v>2683.174124934762</v>
       </c>
       <c r="P41" t="n">
-        <v>2850.530199414489</v>
+        <v>3208.280287578651</v>
       </c>
       <c r="Q41" t="n">
-        <v>3168.234313151407</v>
+        <v>3208.280287578651</v>
       </c>
       <c r="R41" t="n">
         <v>3208.280287578651</v>
@@ -7441,22 +7441,22 @@
         <v>3208.280287578651</v>
       </c>
       <c r="T41" t="n">
-        <v>3208.280287578651</v>
+        <v>3116.869757630982</v>
       </c>
       <c r="U41" t="n">
-        <v>2952.627980414948</v>
+        <v>3116.869757630982</v>
       </c>
       <c r="V41" t="n">
-        <v>2610.521171118467</v>
+        <v>2774.7629483345</v>
       </c>
       <c r="W41" t="n">
-        <v>2610.521171118467</v>
+        <v>2403.763913302788</v>
       </c>
       <c r="X41" t="n">
-        <v>2221.068566051523</v>
+        <v>2403.763913302788</v>
       </c>
       <c r="Y41" t="n">
-        <v>1824.577856972124</v>
+        <v>2007.273204223389</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>239.4725260399655</v>
       </c>
       <c r="K42" t="n">
-        <v>257.0674880054668</v>
+        <v>665.5076000476931</v>
       </c>
       <c r="L42" t="n">
-        <v>719.7123669578541</v>
+        <v>1292.001678800993</v>
       </c>
       <c r="M42" t="n">
-        <v>1513.76173813357</v>
+        <v>1367.328654156046</v>
       </c>
       <c r="N42" t="n">
-        <v>1600.448013579097</v>
+        <v>1454.014929601572</v>
       </c>
       <c r="O42" t="n">
-        <v>2273.587119085025</v>
+        <v>1937.765333959813</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.075001062482</v>
+        <v>1977.253215937271</v>
       </c>
       <c r="Q42" t="n">
-        <v>2313.075001062482</v>
+        <v>2295.645704806605</v>
       </c>
       <c r="R42" t="n">
         <v>2313.075001062482</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>414.14478837125</v>
+        <v>659.209721823107</v>
       </c>
       <c r="C43" t="n">
-        <v>243.9396704372392</v>
+        <v>659.209721823107</v>
       </c>
       <c r="D43" t="n">
-        <v>243.9396704372392</v>
+        <v>503.5766087256217</v>
       </c>
       <c r="E43" t="n">
-        <v>231.8565842491653</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="F43" t="n">
-        <v>231.8565842491653</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="G43" t="n">
-        <v>64.16560575157303</v>
+        <v>180.3268180872319</v>
       </c>
       <c r="H43" t="n">
-        <v>64.16560575157303</v>
+        <v>180.3268180872319</v>
       </c>
       <c r="I43" t="n">
         <v>64.16560575157303</v>
@@ -7593,28 +7593,28 @@
         <v>1482.942936390566</v>
       </c>
       <c r="R43" t="n">
-        <v>1482.942936390566</v>
+        <v>1384.359864687243</v>
       </c>
       <c r="S43" t="n">
-        <v>1482.942936390566</v>
+        <v>1191.356649483234</v>
       </c>
       <c r="T43" t="n">
-        <v>1482.942936390566</v>
+        <v>958.0434652823066</v>
       </c>
       <c r="U43" t="n">
-        <v>1197.534857836265</v>
+        <v>958.0434652823066</v>
       </c>
       <c r="V43" t="n">
-        <v>931.5555126570893</v>
+        <v>692.0641201031308</v>
       </c>
       <c r="W43" t="n">
-        <v>648.2251105882669</v>
+        <v>659.209721823107</v>
       </c>
       <c r="X43" t="n">
-        <v>414.14478837125</v>
+        <v>659.209721823107</v>
       </c>
       <c r="Y43" t="n">
-        <v>414.14478837125</v>
+        <v>659.209721823107</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1650.8431926892</v>
+        <v>1457.621240604641</v>
       </c>
       <c r="C44" t="n">
-        <v>1257.66769119213</v>
+        <v>1457.621240604641</v>
       </c>
       <c r="D44" t="n">
-        <v>872.2265624087979</v>
+        <v>1457.621240604641</v>
       </c>
       <c r="E44" t="n">
-        <v>469.6430375253424</v>
+        <v>1055.037715721185</v>
       </c>
       <c r="F44" t="n">
-        <v>375.3930196677399</v>
+        <v>877.2434290478784</v>
       </c>
       <c r="G44" t="n">
-        <v>375.3930196677399</v>
+        <v>465.3359535571038</v>
       </c>
       <c r="H44" t="n">
-        <v>64.16560575157303</v>
+        <v>154.1085396409369</v>
       </c>
       <c r="I44" t="n">
         <v>64.16560575157303</v>
@@ -7651,22 +7651,22 @@
         <v>313.23554893986</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1064969045754</v>
+        <v>828.7166720794821</v>
       </c>
       <c r="L44" t="n">
-        <v>370.5413680416351</v>
+        <v>1516.187522968257</v>
       </c>
       <c r="M44" t="n">
-        <v>1132.572173970933</v>
+        <v>2278.218328897555</v>
       </c>
       <c r="N44" t="n">
-        <v>1718.13870980715</v>
+        <v>3025.555108149263</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.470011197845</v>
+        <v>3180.1600498348</v>
       </c>
       <c r="P44" t="n">
-        <v>2890.576173841734</v>
+        <v>3208.280287578651</v>
       </c>
       <c r="Q44" t="n">
         <v>3208.280287578651</v>
@@ -7675,25 +7675,25 @@
         <v>3208.280287578651</v>
       </c>
       <c r="S44" t="n">
-        <v>3208.280287578651</v>
+        <v>3070.371426003304</v>
       </c>
       <c r="T44" t="n">
-        <v>3208.280287578651</v>
+        <v>2852.365811855621</v>
       </c>
       <c r="U44" t="n">
-        <v>3208.280287578651</v>
+        <v>2596.713504691918</v>
       </c>
       <c r="V44" t="n">
-        <v>3208.280287578651</v>
+        <v>2254.606695395436</v>
       </c>
       <c r="W44" t="n">
-        <v>2837.281252546939</v>
+        <v>2254.606695395436</v>
       </c>
       <c r="X44" t="n">
-        <v>2447.828647479996</v>
+        <v>2254.606695395436</v>
       </c>
       <c r="Y44" t="n">
-        <v>2051.337938400597</v>
+        <v>1858.115986316038</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1728.45442912222</v>
+        <v>833.249142606052</v>
       </c>
       <c r="C45" t="n">
-        <v>1577.800198682312</v>
+        <v>682.5949121661442</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.711231303793</v>
+        <v>552.5059447876246</v>
       </c>
       <c r="E45" t="n">
-        <v>1311.264740414681</v>
+        <v>416.0594538985123</v>
       </c>
       <c r="F45" t="n">
-        <v>1186.832934297812</v>
+        <v>291.6276477816441</v>
       </c>
       <c r="G45" t="n">
-        <v>1067.444750392352</v>
+        <v>172.2394638761842</v>
       </c>
       <c r="H45" t="n">
-        <v>985.6339046856366</v>
+        <v>90.42861816946854</v>
       </c>
       <c r="I45" t="n">
-        <v>959.3708922677411</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="J45" t="n">
-        <v>959.3708922677411</v>
+        <v>64.16560575157303</v>
       </c>
       <c r="K45" t="n">
-        <v>976.9658542332423</v>
+        <v>81.76056771707428</v>
       </c>
       <c r="L45" t="n">
-        <v>1603.459932986542</v>
+        <v>708.2546464703742</v>
       </c>
       <c r="M45" t="n">
-        <v>1701.60392891955</v>
+        <v>1502.30401764609</v>
       </c>
       <c r="N45" t="n">
-        <v>2495.653300095266</v>
+        <v>2208.728979470078</v>
       </c>
       <c r="O45" t="n">
-        <v>3168.792405601194</v>
+        <v>2273.587119085025</v>
       </c>
       <c r="P45" t="n">
-        <v>3208.280287578651</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="Q45" t="n">
-        <v>3208.280287578651</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="R45" t="n">
-        <v>3208.280287578651</v>
+        <v>2313.075001062482</v>
       </c>
       <c r="S45" t="n">
-        <v>3085.824917873395</v>
+        <v>2190.619631357226</v>
       </c>
       <c r="T45" t="n">
-        <v>2911.548262505808</v>
+        <v>2016.342975989638</v>
       </c>
       <c r="U45" t="n">
-        <v>2701.529305633309</v>
+        <v>1806.324019117141</v>
       </c>
       <c r="V45" t="n">
-        <v>2478.989304004376</v>
+        <v>1583.784017488208</v>
       </c>
       <c r="W45" t="n">
-        <v>2248.872058137663</v>
+        <v>1353.666771621494</v>
       </c>
       <c r="X45" t="n">
-        <v>2059.564980487674</v>
+        <v>1164.359693971506</v>
       </c>
       <c r="Y45" t="n">
-        <v>1880.250763563182</v>
+        <v>985.0454770470134</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>648.8446781125417</v>
+        <v>518.222914518835</v>
       </c>
       <c r="C46" t="n">
-        <v>648.8446781125417</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="D46" t="n">
-        <v>493.2115650150565</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="E46" t="n">
-        <v>337.652752874259</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="F46" t="n">
-        <v>180.3268180872319</v>
+        <v>348.0177965848242</v>
       </c>
       <c r="G46" t="n">
         <v>180.3268180872319</v>
@@ -7833,25 +7833,25 @@
         <v>1482.942936390566</v>
       </c>
       <c r="S46" t="n">
-        <v>1421.266486543896</v>
+        <v>1289.939721186557</v>
       </c>
       <c r="T46" t="n">
-        <v>1421.266486543896</v>
+        <v>1289.939721186557</v>
       </c>
       <c r="U46" t="n">
-        <v>1421.266486543896</v>
+        <v>1024.665377771014</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.287141364721</v>
+        <v>1024.665377771014</v>
       </c>
       <c r="W46" t="n">
-        <v>871.9567392958984</v>
+        <v>741.3349757021916</v>
       </c>
       <c r="X46" t="n">
-        <v>871.9567392958984</v>
+        <v>741.3349757021916</v>
       </c>
       <c r="Y46" t="n">
-        <v>648.8446781125417</v>
+        <v>518.222914518835</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>373.0193783173885</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L2" t="n">
         <v>383.2091448686429</v>
@@ -7990,13 +7990,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>370.2334600314132</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7529874266315</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q3" t="n">
         <v>320.9491282940651</v>
@@ -8221,10 +8221,10 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M5" t="n">
-        <v>224.2837924789551</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8233,10 +8233,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,22 +8455,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N8" t="n">
-        <v>266.925520346104</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>319.5579104714845</v>
@@ -8540,10 +8540,10 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
@@ -8552,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,22 +8692,22 @@
         <v>12.20491846814522</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>530.8378701557738</v>
       </c>
       <c r="M11" t="n">
-        <v>505.214401806372</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>501.076942829734</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>513.8796577199649</v>
+        <v>84.52915487943829</v>
       </c>
       <c r="P11" t="n">
-        <v>102.8688510376709</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8771,25 +8771,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>519.3900132572103</v>
       </c>
       <c r="M12" t="n">
-        <v>244.6792777090104</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>486.1394819654033</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>508.1881040164935</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>482.2444251568874</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.111994252435636</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>12.20491846814522</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>146.5277473159687</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>505.214401806372</v>
       </c>
       <c r="N14" t="n">
-        <v>501.0769428297341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>513.8796577199649</v>
+        <v>219.9305474468957</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>10.29813923054425</v>
       </c>
       <c r="R14" t="n">
         <v>62.06713578241397</v>
@@ -9008,28 +9008,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>504.8325193357954</v>
       </c>
       <c r="M15" t="n">
-        <v>497.613522460831</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>250.8105869669943</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>508.1881040164935</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.111994252435636</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>53.40845515224866</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>12.20491846814522</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>464.2325764560167</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>505.2144018063721</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>501.0769428297341</v>
+        <v>211.2652915333029</v>
       </c>
       <c r="O17" t="n">
         <v>513.8796577199649</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>10.29813923054425</v>
@@ -9245,25 +9245,25 @@
         <v>19.62431787003527</v>
       </c>
       <c r="K18" t="n">
-        <v>117.7537501079355</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>449.936906279087</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>497.6135224608309</v>
       </c>
       <c r="N18" t="n">
         <v>486.1394819654033</v>
       </c>
       <c r="O18" t="n">
-        <v>508.1881040164935</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>6.111994252435636</v>
       </c>
       <c r="R18" t="n">
         <v>53.40845515224866</v>
@@ -9406,25 +9406,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>530.8378701557738</v>
+        <v>363.7812238349223</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>182.4334061250422</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>513.8796577199649</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.29813923054425</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>62.06713578241397</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>504.8325193357954</v>
       </c>
       <c r="M21" t="n">
-        <v>36.29838712380395</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>486.1394819654033</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>53.40845515224866</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>19.62431787003527</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>240.7537539602268</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>625.4809916602267</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>6.111994252435636</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>19.62431787003527</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>504.8325193357952</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>177.0009425223024</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.111994252435636</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>53.40845515224866</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>102.5176150018522</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>19.62431787003526</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>11.05577358852865</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>442.613202292302</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>6.111994252435622</v>
@@ -10372,7 +10372,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018522</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>19.62431787003526</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>240.7537539602266</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>684.0314539311879</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>6.111994252435622</v>
       </c>
       <c r="R33" t="n">
         <v>53.40845515224865</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>12.20491846814519</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>353.083228558436</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>30.67830299319721</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.29813923054422</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>62.06713578241396</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>19.62431787003526</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>85.09034827851137</v>
+        <v>504.8325193357952</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10688,7 +10688,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>53.40845515224865</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>673.9807052227854</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>281.0984865404199</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>62.06713578241396</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>19.62431787003526</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>212.0158758795872</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>725.9822180006699</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>714.5081775052423</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0014342777104</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>6.111994252435622</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>53.40845515224865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.5102228085253</v>
+        <v>12.20491846814519</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>458.7843786710401</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11080,10 +11080,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>10.29813923054422</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>62.06713578241396</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>413.0066964502523</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>725.9822180006699</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>423.1234997407007</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.111994252435622</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>53.40845515224865</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>518.8569158044226</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>96.34488912831029</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>10.29813923054422</v>
       </c>
       <c r="R44" t="n">
         <v>62.06713578241396</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>23.0474955332872</v>
+        <v>725.9822180006699</v>
       </c>
       <c r="N45" t="n">
-        <v>714.5081775052422</v>
+        <v>625.9986731095565</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.7884007358668</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>308.1151397770052</v>
       </c>
       <c r="I11" t="n">
-        <v>89.04350455047025</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0957840920666</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>252.3332270719557</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>176.8939931451576</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70.60654780496959</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H13" t="n">
-        <v>49.95572390097381</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.59724098628948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,22 +23497,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>371.8331070704181</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.8789423591183</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>308.1151397770052</v>
       </c>
       <c r="I14" t="n">
         <v>89.04350455047025</v>
@@ -23548,7 +23548,7 @@
         <v>136.5297729595937</v>
       </c>
       <c r="T14" t="n">
-        <v>215.8255580062061</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0957840920666</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>155.2566725521552</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23664,7 +23664,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.0140687126163</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>8.964298886167612</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>282.5539977687581</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>200.110112837128</v>
+        <v>2.494227320262041</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T17" t="n">
         <v>215.8255580062061</v>
@@ -23791,7 +23791,7 @@
         <v>253.0957840920666</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.206261372959744</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0140687126163</v>
+        <v>41.54751259732305</v>
       </c>
       <c r="H19" t="n">
         <v>148.9675758312477</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>97.59724098628948</v>
       </c>
       <c r="S19" t="n">
         <v>191.0731830519693</v>
@@ -23946,16 +23946,16 @@
         <v>230.9800523589181</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.28680811374869</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>208.1266598122058</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.7884007358668</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>89.04350455047025</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>215.8255580062061</v>
@@ -24028,16 +24028,16 @@
         <v>253.0957840920666</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>32.82775240623135</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>19.4573656408306</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.0140687126163</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9675758312477</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.59724098628948</v>
       </c>
       <c r="S22" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5539977687581</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>40.84090989607762</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>89.04350455047025</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.8257114022882</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0140687126163</v>
+        <v>144.7362578428009</v>
       </c>
       <c r="H25" t="n">
         <v>148.9675758312477</v>
       </c>
       <c r="I25" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.59724098628948</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V25" t="n">
-        <v>61.17705431023342</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.71324770883537</v>
+        <v>44.81227141685268</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H28" t="n">
         <v>148.9675758312477</v>
@@ -24654,22 +24654,22 @@
         <v>191.0731830519693</v>
       </c>
       <c r="T28" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>89.35281510710982</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>105.3816021369612</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>89.04350455047023</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>200.8257114022882</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.90919065806872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24858,7 +24858,7 @@
         <v>148.9675758312477</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.59724098628946</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.0731830519693</v>
       </c>
       <c r="T31" t="n">
-        <v>178.9279160551253</v>
+        <v>176.743509347886</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>27.84129927773051</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>89.04350455047023</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>136.5297729595937</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>200.8257114022882</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H34" t="n">
         <v>148.9675758312477</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.6444318493396</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>105.3816021369612</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>80.35839259323654</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.0562359378121</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>44.29131596654499</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>97.59724098628946</v>
       </c>
       <c r="S37" t="n">
         <v>191.0731830519693</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>229.3385320333848</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>292.1614094311363</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>89.04350455047023</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>215.8255580062061</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>227.3952071262264</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0140687126163</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9675758312477</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>114.9996002123023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>97.59724098628946</v>
       </c>
       <c r="S40" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>214.9279865744205</v>
+        <v>230.9800523589181</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5539977687581</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0.3464676976459486</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>324.838821793948</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.7884007358668</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>308.1151397770052</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>89.04350455047023</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>136.5297729595937</v>
       </c>
       <c r="T41" t="n">
-        <v>215.8255580062061</v>
+        <v>125.3291333580132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0957840920666</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.0409686931963</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25806,7 +25806,7 @@
         <v>148.9675758312477</v>
       </c>
       <c r="I43" t="n">
-        <v>114.9996002123023</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.59724098628946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>191.0731830519693</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.9800523589181</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5539977687581</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>247.9712437509106</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>319.4179764062955</v>
+        <v>236.7091502787484</v>
       </c>
       <c r="G44" t="n">
-        <v>407.7884007358668</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>89.04350455047023</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>136.5297729595937</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.8255580062061</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0957840920666</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0140687126163</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9675758312477</v>
@@ -26073,16 +26073,16 @@
         <v>97.59724098628946</v>
       </c>
       <c r="S46" t="n">
-        <v>130.0134977037664</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.9800523589181</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5539977687581</v>
+        <v>19.93239778737086</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>543460.0628573891</v>
+        <v>543460.0628573889</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>543460.0628573892</v>
+        <v>543460.062857389</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>543460.0628573892</v>
+        <v>543460.0628573891</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>765271.1303522324</v>
+        <v>765271.1303522325</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632000.3507627484</v>
+        <v>632000.3507627482</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>540996.5342800702</v>
+      </c>
+      <c r="C2" t="n">
         <v>540996.5342800701</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>540996.5342800703</v>
-      </c>
-      <c r="D2" t="n">
-        <v>540996.5342800702</v>
       </c>
       <c r="E2" t="n">
         <v>353477.0787381714</v>
@@ -26328,34 +26328,34 @@
         <v>353477.0787381714</v>
       </c>
       <c r="G2" t="n">
-        <v>353477.0787381715</v>
+        <v>353477.0787381714</v>
       </c>
       <c r="H2" t="n">
-        <v>353477.0787381715</v>
+        <v>353477.0787381714</v>
       </c>
       <c r="I2" t="n">
-        <v>486025.4654049237</v>
+        <v>486025.4654049236</v>
       </c>
       <c r="J2" t="n">
+        <v>486025.4654049241</v>
+      </c>
+      <c r="K2" t="n">
         <v>486025.4654049236</v>
-      </c>
-      <c r="K2" t="n">
-        <v>486025.4654049239</v>
       </c>
       <c r="L2" t="n">
         <v>486025.4654049237</v>
       </c>
       <c r="M2" t="n">
-        <v>406386.3967871367</v>
+        <v>406386.3967871364</v>
       </c>
       <c r="N2" t="n">
+        <v>406386.3967871364</v>
+      </c>
+      <c r="O2" t="n">
+        <v>406386.3967871369</v>
+      </c>
+      <c r="P2" t="n">
         <v>406386.3967871366</v>
-      </c>
-      <c r="O2" t="n">
-        <v>406386.3967871367</v>
-      </c>
-      <c r="P2" t="n">
-        <v>406386.3967871367</v>
       </c>
     </row>
     <row r="3">
@@ -26423,19 +26423,19 @@
         <v>322568.5699589869</v>
       </c>
       <c r="D4" t="n">
-        <v>322568.569958987</v>
+        <v>322568.5699589869</v>
       </c>
       <c r="E4" t="n">
+        <v>72624.59060371103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>72624.59060371103</v>
+      </c>
+      <c r="G4" t="n">
         <v>72624.59060371101</v>
       </c>
-      <c r="F4" t="n">
-        <v>72624.590603711</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>72624.59060371103</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72624.59060371101</v>
       </c>
       <c r="I4" t="n">
         <v>117974.9551878531</v>
@@ -26450,16 +26450,16 @@
         <v>117974.9551878531</v>
       </c>
       <c r="M4" t="n">
+        <v>90727.08829349061</v>
+      </c>
+      <c r="N4" t="n">
         <v>90727.08829349058</v>
       </c>
-      <c r="N4" t="n">
-        <v>90727.08829349061</v>
-      </c>
       <c r="O4" t="n">
-        <v>90727.0882934906</v>
+        <v>90727.08829349058</v>
       </c>
       <c r="P4" t="n">
-        <v>90727.08829349061</v>
+        <v>90727.08829349058</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93753.52516146097</v>
+        <v>93753.52516146109</v>
       </c>
       <c r="C6" t="n">
+        <v>170818.7370326836</v>
+      </c>
+      <c r="D6" t="n">
         <v>170818.7370326838</v>
       </c>
-      <c r="D6" t="n">
-        <v>170818.7370326836</v>
-      </c>
       <c r="E6" t="n">
-        <v>-111755.5570134726</v>
+        <v>-112380.621865279</v>
       </c>
       <c r="F6" t="n">
-        <v>239232.4454143549</v>
+        <v>238607.3805625485</v>
       </c>
       <c r="G6" t="n">
-        <v>239232.445414355</v>
+        <v>238607.3805625485</v>
       </c>
       <c r="H6" t="n">
-        <v>239232.445414355</v>
+        <v>238607.3805625486</v>
       </c>
       <c r="I6" t="n">
-        <v>139510.4112955808</v>
+        <v>139327.1743993303</v>
       </c>
       <c r="J6" t="n">
-        <v>231478.3250351227</v>
+        <v>231295.0881388726</v>
       </c>
       <c r="K6" t="n">
-        <v>291646.2344141694</v>
+        <v>291462.9975179186</v>
       </c>
       <c r="L6" t="n">
-        <v>291646.2344141692</v>
+        <v>291462.9975179187</v>
       </c>
       <c r="M6" t="n">
-        <v>260154.4490847184</v>
+        <v>259705.7486264083</v>
       </c>
       <c r="N6" t="n">
-        <v>260154.4490847183</v>
+        <v>259705.7486264084</v>
       </c>
       <c r="O6" t="n">
-        <v>260154.4490847184</v>
+        <v>259705.7486264088</v>
       </c>
       <c r="P6" t="n">
-        <v>260154.4490847184</v>
+        <v>259705.7486264085</v>
       </c>
     </row>
   </sheetData>
@@ -27387,19 +27387,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>320.753997113184</v>
       </c>
       <c r="I2" t="n">
-        <v>99.58828758003948</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>72.8960147599614</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>36.07037906483956</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>81.33663964527307</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>64.68065597445491</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27627,13 +27627,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
-        <v>90.88124479102308</v>
+        <v>227.7467677134927</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>295.9502145079127</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27697,7 +27697,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.625601551390439</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>153.7732896868991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>186.1876743198956</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>77.89594247576059</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.4694668186306</v>
       </c>
       <c r="F8" t="n">
-        <v>219.2069951405155</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27946,7 +27946,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4.625601551390417</v>
+        <v>123.4848213002446</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>84.29126320862801</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28031,7 +28031,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>110.1092644109937</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L2" t="n">
         <v>229.9609751381512</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O2" t="n">
-        <v>220.6696226073168</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q3" t="n">
         <v>229.9609751381512</v>
@@ -34871,10 +34871,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3482495370789</v>
+        <v>164.3482495370788</v>
       </c>
       <c r="P4" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q4" t="n">
         <v>3.456764010152483</v>
@@ -34941,11 +34941,11 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M5" t="n">
-        <v>74.55874088122788</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -34953,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="P6" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N8" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>229.9609751381512</v>
@@ -35260,10 +35260,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15.02115956031849</v>
+        <v>520.6880031713355</v>
       </c>
       <c r="L11" t="n">
-        <v>42.86350619905016</v>
+        <v>573.7013763548239</v>
       </c>
       <c r="M11" t="n">
-        <v>573.7013763548239</v>
+        <v>68.48697454845188</v>
       </c>
       <c r="N11" t="n">
-        <v>573.7013763548239</v>
+        <v>72.62443352508984</v>
       </c>
       <c r="O11" t="n">
-        <v>573.7013763548239</v>
+        <v>144.3508735142972</v>
       </c>
       <c r="P11" t="n">
-        <v>131.2731315870157</v>
+        <v>530.4102652968577</v>
       </c>
       <c r="Q11" t="n">
         <v>320.913246198907</v>
@@ -35491,25 +35491,25 @@
         <v>177.0776972610025</v>
       </c>
       <c r="K12" t="n">
-        <v>17.77268885404166</v>
+        <v>430.3384585936643</v>
       </c>
       <c r="L12" t="n">
-        <v>54.31136309761364</v>
+        <v>573.7013763548239</v>
       </c>
       <c r="M12" t="n">
-        <v>320.7671316030032</v>
+        <v>76.08785389399289</v>
       </c>
       <c r="N12" t="n">
-        <v>573.7013763548239</v>
+        <v>87.56189438942056</v>
       </c>
       <c r="O12" t="n">
-        <v>573.7013763548239</v>
+        <v>65.51327233833037</v>
       </c>
       <c r="P12" t="n">
-        <v>536.6886685504812</v>
+        <v>522.1311746290667</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>321.608574615489</v>
       </c>
       <c r="R12" t="n">
         <v>17.60534975341182</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>251.5858012002899</v>
       </c>
       <c r="K14" t="n">
-        <v>15.02115956031849</v>
+        <v>520.6880031713355</v>
       </c>
       <c r="L14" t="n">
-        <v>189.3912535150189</v>
+        <v>42.86350619905016</v>
       </c>
       <c r="M14" t="n">
-        <v>68.48697454845188</v>
+        <v>573.7013763548239</v>
       </c>
       <c r="N14" t="n">
-        <v>573.7013763548239</v>
+        <v>72.62443352508984</v>
       </c>
       <c r="O14" t="n">
-        <v>573.7013763548239</v>
+        <v>279.7522660817547</v>
       </c>
       <c r="P14" t="n">
         <v>530.4102652968577</v>
       </c>
       <c r="Q14" t="n">
-        <v>320.913246198907</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>177.0776972610025</v>
       </c>
       <c r="K15" t="n">
-        <v>17.77268885404166</v>
+        <v>430.3384585936643</v>
       </c>
       <c r="L15" t="n">
-        <v>54.31136309761364</v>
+        <v>559.1438824334091</v>
       </c>
       <c r="M15" t="n">
-        <v>573.7013763548239</v>
+        <v>76.08785389399289</v>
       </c>
       <c r="N15" t="n">
-        <v>338.3724813564149</v>
+        <v>87.56189438942056</v>
       </c>
       <c r="O15" t="n">
-        <v>573.7013763548239</v>
+        <v>65.51327233833037</v>
       </c>
       <c r="P15" t="n">
         <v>536.6886685504812</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>321.608574615489</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.60534975341182</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>251.5858012002899</v>
       </c>
       <c r="K17" t="n">
-        <v>479.2537360163352</v>
+        <v>520.6880031713355</v>
       </c>
       <c r="L17" t="n">
         <v>42.86350619905016</v>
       </c>
       <c r="M17" t="n">
-        <v>573.7013763548239</v>
+        <v>68.48697454845188</v>
       </c>
       <c r="N17" t="n">
-        <v>573.7013763548239</v>
+        <v>283.8897250583927</v>
       </c>
       <c r="O17" t="n">
         <v>573.7013763548239</v>
       </c>
       <c r="P17" t="n">
-        <v>28.40428054934478</v>
+        <v>530.4102652968577</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5264389619771</v>
+        <v>17.77268885404166</v>
       </c>
       <c r="L18" t="n">
-        <v>54.31136309761364</v>
+        <v>504.2482693767006</v>
       </c>
       <c r="M18" t="n">
-        <v>76.08785389399289</v>
+        <v>573.7013763548239</v>
       </c>
       <c r="N18" t="n">
         <v>573.7013763548239</v>
       </c>
       <c r="O18" t="n">
-        <v>573.7013763548239</v>
+        <v>65.51327233833037</v>
       </c>
       <c r="P18" t="n">
         <v>536.6886685504812</v>
       </c>
       <c r="Q18" t="n">
-        <v>321.608574615489</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>520.6880031713355</v>
       </c>
       <c r="L20" t="n">
-        <v>573.7013763548239</v>
+        <v>406.6447300339725</v>
       </c>
       <c r="M20" t="n">
         <v>68.48697454845188</v>
       </c>
       <c r="N20" t="n">
-        <v>255.0578396501321</v>
+        <v>72.62443352508984</v>
       </c>
       <c r="O20" t="n">
-        <v>573.7013763548239</v>
+        <v>59.82171863485894</v>
       </c>
       <c r="P20" t="n">
-        <v>28.40428054934478</v>
+        <v>530.4102652968577</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>320.913246198907</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.45047921943863</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>430.3384585936643</v>
       </c>
       <c r="L21" t="n">
-        <v>54.31136309761364</v>
+        <v>559.1438824334091</v>
       </c>
       <c r="M21" t="n">
-        <v>112.3862410177968</v>
+        <v>76.08785389399289</v>
       </c>
       <c r="N21" t="n">
-        <v>573.7013763548239</v>
+        <v>87.56189438942056</v>
       </c>
       <c r="O21" t="n">
         <v>65.51327233833037</v>
@@ -36223,7 +36223,7 @@
         <v>321.608574615489</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.60534975341182</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.77268885404166</v>
+        <v>258.5264428142684</v>
       </c>
       <c r="L24" t="n">
         <v>632.82230177101</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5877533439929</v>
+        <v>76.08785389399289</v>
       </c>
       <c r="N24" t="n">
-        <v>713.0428860496472</v>
+        <v>87.56189438942056</v>
       </c>
       <c r="O24" t="n">
-        <v>65.51327233833037</v>
+        <v>679.9384904100284</v>
       </c>
       <c r="P24" t="n">
-        <v>39.88674947217932</v>
+        <v>536.6886685504812</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>177.0776972610025</v>
       </c>
       <c r="K27" t="n">
         <v>430.3384585936643</v>
       </c>
       <c r="L27" t="n">
-        <v>54.31136309761364</v>
+        <v>559.1438824334089</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5877533439929</v>
+        <v>76.08785389399289</v>
       </c>
       <c r="N27" t="n">
         <v>87.56189438942056</v>
       </c>
       <c r="O27" t="n">
-        <v>679.9384904100284</v>
+        <v>65.51327233833037</v>
       </c>
       <c r="P27" t="n">
-        <v>216.8876919944817</v>
+        <v>536.6886685504812</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.608574615489</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.60534975341182</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>320.9132461989071</v>
       </c>
       <c r="R29" t="n">
-        <v>40.45047921943865</v>
+        <v>40.45047921943827</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>17.77268885404168</v>
+        <v>430.3384585936643</v>
       </c>
       <c r="L30" t="n">
         <v>632.82230177101</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5877533439929</v>
+        <v>76.08785389399291</v>
       </c>
       <c r="N30" t="n">
-        <v>98.61766797794924</v>
+        <v>87.56189438942059</v>
       </c>
       <c r="O30" t="n">
-        <v>679.9384904100284</v>
+        <v>508.1264746306325</v>
       </c>
       <c r="P30" t="n">
-        <v>39.88674947217933</v>
+        <v>536.6886685504812</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>320.9132461989071</v>
       </c>
       <c r="R32" t="n">
-        <v>40.45047921943827</v>
+        <v>40.45047921943865</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>177.0776972610025</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>17.77268885404168</v>
+        <v>258.5264428142683</v>
       </c>
       <c r="L33" t="n">
-        <v>54.31136309761366</v>
+        <v>632.82230177101</v>
       </c>
       <c r="M33" t="n">
-        <v>760.1193078251808</v>
+        <v>76.08785389399291</v>
       </c>
       <c r="N33" t="n">
-        <v>835.335998365364</v>
+        <v>87.56189438942059</v>
       </c>
       <c r="O33" t="n">
-        <v>65.5132723383304</v>
+        <v>679.9384904100284</v>
       </c>
       <c r="P33" t="n">
-        <v>39.88674947217933</v>
+        <v>536.6886685504812</v>
       </c>
       <c r="Q33" t="n">
-        <v>321.608574615489</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>251.5858012002899</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>520.6880031713355</v>
+        <v>15.02115956031852</v>
       </c>
       <c r="L35" t="n">
-        <v>42.86350619905022</v>
+        <v>694.4150008977529</v>
       </c>
       <c r="M35" t="n">
-        <v>421.5702031068879</v>
+        <v>769.7280867972706</v>
       </c>
       <c r="N35" t="n">
         <v>754.8856356077852</v>
       </c>
       <c r="O35" t="n">
-        <v>653.8700014047417</v>
+        <v>90.5000216280562</v>
       </c>
       <c r="P35" t="n">
         <v>530.4102652968577</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>320.9132461989071</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>177.0776972610025</v>
       </c>
       <c r="K36" t="n">
         <v>430.3384585936643</v>
       </c>
       <c r="L36" t="n">
-        <v>139.401711376125</v>
+        <v>559.1438824334089</v>
       </c>
       <c r="M36" t="n">
         <v>76.08785389399291</v>
@@ -37399,7 +37399,7 @@
         <v>87.56189438942059</v>
       </c>
       <c r="O36" t="n">
-        <v>679.9384904100284</v>
+        <v>65.5132723383304</v>
       </c>
       <c r="P36" t="n">
         <v>536.6886685504812</v>
@@ -37408,7 +37408,7 @@
         <v>321.608574615489</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>17.60534975341183</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>251.5858012002899</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6880031713355</v>
+        <v>15.02115956031852</v>
       </c>
       <c r="L38" t="n">
-        <v>42.86350619905022</v>
+        <v>694.4150008977529</v>
       </c>
       <c r="M38" t="n">
-        <v>68.48697454845191</v>
+        <v>769.7280867972706</v>
       </c>
       <c r="N38" t="n">
-        <v>746.6051387478753</v>
+        <v>754.8856356077852</v>
       </c>
       <c r="O38" t="n">
-        <v>653.8700014047417</v>
+        <v>59.821718634859</v>
       </c>
       <c r="P38" t="n">
-        <v>530.4102652968577</v>
+        <v>309.5027670897647</v>
       </c>
       <c r="Q38" t="n">
         <v>320.9132461989071</v>
       </c>
       <c r="R38" t="n">
-        <v>40.45047921943865</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>177.0776972610025</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>430.3384585936643</v>
+        <v>17.77268885404168</v>
       </c>
       <c r="L39" t="n">
-        <v>266.3272389772009</v>
+        <v>54.31136309761366</v>
       </c>
       <c r="M39" t="n">
-        <v>76.08785389399291</v>
+        <v>802.0700718946629</v>
       </c>
       <c r="N39" t="n">
-        <v>87.56189438942059</v>
+        <v>802.0700718946629</v>
       </c>
       <c r="O39" t="n">
-        <v>679.9384904100284</v>
+        <v>555.5147066160408</v>
       </c>
       <c r="P39" t="n">
-        <v>536.6886685504812</v>
+        <v>39.88674947217933</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>17.60534975341183</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>243.3053043403801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6880031713355</v>
+        <v>15.02115956031852</v>
       </c>
       <c r="L41" t="n">
-        <v>42.86350619905022</v>
+        <v>694.4150008977529</v>
       </c>
       <c r="M41" t="n">
-        <v>68.48697454845191</v>
+        <v>527.2713532194921</v>
       </c>
       <c r="N41" t="n">
         <v>754.8856356077852</v>
@@ -37800,10 +37800,10 @@
         <v>530.4102652968577</v>
       </c>
       <c r="Q41" t="n">
-        <v>320.9132461989071</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.45047921943865</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>177.0776972610025</v>
       </c>
       <c r="K42" t="n">
-        <v>17.77268885404168</v>
+        <v>430.3384585936643</v>
       </c>
       <c r="L42" t="n">
-        <v>467.318059547866</v>
+        <v>632.82230177101</v>
       </c>
       <c r="M42" t="n">
-        <v>802.0700718946629</v>
+        <v>76.08785389399291</v>
       </c>
       <c r="N42" t="n">
         <v>87.56189438942059</v>
       </c>
       <c r="O42" t="n">
-        <v>679.9384904100284</v>
+        <v>488.6367720790311</v>
       </c>
       <c r="P42" t="n">
         <v>39.88674947217933</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>321.608574615489</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>17.60534975341183</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>251.5858012002899</v>
       </c>
       <c r="K44" t="n">
-        <v>15.02115956031852</v>
+        <v>520.6880031713355</v>
       </c>
       <c r="L44" t="n">
-        <v>42.86350619905022</v>
+        <v>694.4150008977529</v>
       </c>
       <c r="M44" t="n">
         <v>769.7280867972706</v>
       </c>
       <c r="N44" t="n">
-        <v>591.4813493295125</v>
+        <v>754.8856356077852</v>
       </c>
       <c r="O44" t="n">
-        <v>653.8700014047417</v>
+        <v>156.1666077631693</v>
       </c>
       <c r="P44" t="n">
-        <v>530.4102652968577</v>
+        <v>28.4042805493448</v>
       </c>
       <c r="Q44" t="n">
-        <v>320.9132461989071</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>632.82230177101</v>
       </c>
       <c r="M45" t="n">
-        <v>99.13534942728012</v>
+        <v>802.0700718946629</v>
       </c>
       <c r="N45" t="n">
-        <v>802.0700718946629</v>
+        <v>713.5605674989771</v>
       </c>
       <c r="O45" t="n">
-        <v>679.9384904100284</v>
+        <v>65.5132723383304</v>
       </c>
       <c r="P45" t="n">
         <v>39.88674947217933</v>
